--- a/nr_vocabularies/fixtures/item-relation-types.xlsx
+++ b/nr_vocabularies/fixtures/item-relation-types.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slasaj\Documents\GitHub\nr-vocabularies\nr_vocabularies\fixtures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A1F36B-143E-4E29-8D76-FD3B3436C80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="4065" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="list 1" sheetId="1" r:id="rId4"/>
+    <sheet name="list 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="143">
   <si>
     <t>code</t>
   </si>
@@ -52,18 +61,12 @@
     <t>hasVersion</t>
   </si>
   <si>
-    <t>Use to indicate the resource is a portion of another resource.</t>
-  </si>
-  <si>
     <t>má verzi</t>
   </si>
   <si>
     <t>has version</t>
   </si>
   <si>
-    <t>Use to indicate the resource is a container of another resource</t>
-  </si>
-  <si>
     <t>isPartOf</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
     <t>has part</t>
   </si>
   <si>
-    <t>Use to indicate the resource is a container of another resource.</t>
-  </si>
-  <si>
     <t>isReviewedBy</t>
   </si>
   <si>
@@ -127,9 +127,6 @@
     <t>references</t>
   </si>
   <si>
-    <t>IsReferencedBy a References is for when a dataset/publication is used as a source of information without a direct citation</t>
-  </si>
-  <si>
     <t>odkazuje (na co)</t>
   </si>
   <si>
@@ -145,13 +142,281 @@
     <t>cites</t>
   </si>
   <si>
+    <t>cituje (co)</t>
+  </si>
+  <si>
+    <t>isSupplementTo</t>
+  </si>
+  <si>
+    <t>je doplňkem k (čemu)</t>
+  </si>
+  <si>
+    <t>is supplement to</t>
+  </si>
+  <si>
+    <t>isSupplementedBy</t>
+  </si>
+  <si>
+    <t>má doplněk</t>
+  </si>
+  <si>
+    <t>is supplemented by</t>
+  </si>
+  <si>
+    <t>describes</t>
+  </si>
+  <si>
+    <t>popisuje (co)</t>
+  </si>
+  <si>
+    <t>isDescribedBy</t>
+  </si>
+  <si>
+    <t>je popsán (čím)</t>
+  </si>
+  <si>
+    <t>is described by</t>
+  </si>
+  <si>
+    <t>isPublishedIn</t>
+  </si>
+  <si>
+    <t>je publikován v</t>
+  </si>
+  <si>
+    <t>is published in</t>
+  </si>
+  <si>
+    <t>isRequiredBy</t>
+  </si>
+  <si>
+    <t>je požadován (čím)</t>
+  </si>
+  <si>
+    <t>is required by</t>
+  </si>
+  <si>
+    <t>requires</t>
+  </si>
+  <si>
+    <t>požaduje (co)</t>
+  </si>
+  <si>
+    <t>isContinuedBy</t>
+  </si>
+  <si>
+    <t>je pokračováním (čeho)</t>
+  </si>
+  <si>
+    <t>is continued by</t>
+  </si>
+  <si>
+    <t>continues</t>
+  </si>
+  <si>
+    <t>pokračuje (čím)</t>
+  </si>
+  <si>
+    <t>hasMetadata</t>
+  </si>
+  <si>
+    <t>má metadata</t>
+  </si>
+  <si>
+    <t>has metadata</t>
+  </si>
+  <si>
+    <t>isMetadataFor</t>
+  </si>
+  <si>
+    <t>je metadaty pro</t>
+  </si>
+  <si>
+    <t>is metadata for</t>
+  </si>
+  <si>
+    <t>isNewVersionOf</t>
+  </si>
+  <si>
+    <t>je novou verzí (čeho)</t>
+  </si>
+  <si>
+    <t>is new version of</t>
+  </si>
+  <si>
+    <t>isPreviousVersionOf</t>
+  </si>
+  <si>
+    <t>je předchozí verzí (čeho)</t>
+  </si>
+  <si>
+    <t>is previous version of</t>
+  </si>
+  <si>
+    <t>isDocumentedBy</t>
+  </si>
+  <si>
+    <t>je zdokumentován (čím)</t>
+  </si>
+  <si>
+    <t>is documented by</t>
+  </si>
+  <si>
+    <t>documents</t>
+  </si>
+  <si>
+    <t>dokumentuje (co)</t>
+  </si>
+  <si>
+    <t>isVariantFormOf</t>
+  </si>
+  <si>
+    <t>je variantou (čeho)</t>
+  </si>
+  <si>
+    <t>is variant form of</t>
+  </si>
+  <si>
+    <t>isOriginalFormOf</t>
+  </si>
+  <si>
+    <t>je původní variantou (čeho)</t>
+  </si>
+  <si>
+    <t>is original form of</t>
+  </si>
+  <si>
+    <t>isIdenticalTo</t>
+  </si>
+  <si>
+    <t>je identický s</t>
+  </si>
+  <si>
+    <t>is identical to</t>
+  </si>
+  <si>
+    <t>isDerivedFrom</t>
+  </si>
+  <si>
+    <t>je odvozen od (čeho)</t>
+  </si>
+  <si>
+    <t>is derived from</t>
+  </si>
+  <si>
+    <t>isSourceOf</t>
+  </si>
+  <si>
+    <t>je zdrojem odvozené verze</t>
+  </si>
+  <si>
+    <t>is source of</t>
+  </si>
+  <si>
+    <t>obsoletes</t>
+  </si>
+  <si>
+    <t>nahrazuje (co)</t>
+  </si>
+  <si>
+    <t>isObsoletedBy</t>
+  </si>
+  <si>
+    <t>je nahrazen (čím)</t>
+  </si>
+  <si>
+    <t>is obsoleted by</t>
+  </si>
+  <si>
+    <t>isCollectedBy</t>
+  </si>
+  <si>
+    <t>je sbírán (čím)</t>
+  </si>
+  <si>
+    <t>is collected by</t>
+  </si>
+  <si>
+    <t>collects</t>
+  </si>
+  <si>
+    <t>Indicates A is collected by B. May be used to indicate the relationship between a dataset and an instrument that is used to collect, measure, obtain, or observe data (as in, dataset A is IsCollectedBy instrument B).</t>
+  </si>
+  <si>
+    <t>sbírá</t>
+  </si>
+  <si>
+    <t>Indicates A collects B. May be used to indicate the relationship between an instrument and where it has been used to collect, measure, obtain, or observe data (as in, instrument A collects dataset B).</t>
+  </si>
+  <si>
+    <t>Indicates A replaces B.</t>
+  </si>
+  <si>
+    <t>Indicates A is replaced by B.</t>
+  </si>
+  <si>
+    <t>Indicates that A is identical to B, for use when there is a need to register two separate instances of the same resource. IsIdenticalTo should be used for a resource that is the same as the registered resource but is saved on another location, maybe another institution.</t>
+  </si>
+  <si>
+    <t>Indicates B is a source upon which A is based. IsDerivedFrom should be used for a resource that is a derivative of an original resource. In this example, the dataset is derived from a larger dataset and data values have been manipulated from their original state.</t>
+  </si>
+  <si>
+    <t>Indicates A is a source upon which B is based. IsSourceOf is the original resource from which a derivative resource was created. In this example, this is the original dataset without value manipulation.</t>
+  </si>
+  <si>
+    <t>Indicates A is a version of B. The registered resource is an instance of a target resource (indicates that A is an instance of B). It may be used, e.g., to relate a specific version of a software package to its software code repository.</t>
+  </si>
+  <si>
+    <t>Indicates A has a version B. The registered resource such as a software package or code repository has a versioned instance (indicates A has the instance B). It may be used, e.g., to relate an un-versioned code repository to one of its specific software versions.</t>
+  </si>
+  <si>
+    <t>Indicates A is a portion of B; may be used for elements of a series. Primarily this relation is applied to container-contained type relationships. May be used for individual software modules; note that code repository-to-version relationships should be modeled using IsVersionOf and HasVersion.</t>
+  </si>
+  <si>
+    <t>Indicates A includes the part B. Primarily this relation is applied to container-contained type relationships. May be used for individual software modules; note that code repository-to-version relationships should be modeled using IsVersionOf and HasVersion.</t>
+  </si>
+  <si>
+    <t>Indicates that A is reviewed by B.</t>
+  </si>
+  <si>
+    <t>Indicates that A is a review of B.</t>
+  </si>
+  <si>
+    <t>Indicates B is used to compile or create A. May be used to indicate either a traditional text compilation, or the compiler program used to generate executable software.</t>
+  </si>
+  <si>
+    <t>Indicates B is the result of a compile or creation event using A. May be used for software and text, as a compiler can be a computer program or a person.</t>
+  </si>
+  <si>
+    <t>Indicates A is used as a source of information by B. IsReferencedBy a References is for when a dataset/publication is used as a source of information without a direct citation</t>
+  </si>
+  <si>
+    <t>Indicates B is used as a source of information for A. IsReferencedBy a References is for when a dataset/publication is used as a source of information without a direct citation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indicates that B includes A in a citation. Cites and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>IsCitedBy</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Cites and </t>
+      <t xml:space="preserve"> is specifically for when a publication/dataset directly cites another publication/dataset in its references.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indicates that A includes B in a citation. Cites and </t>
     </r>
     <r>
       <rPr>
@@ -171,251 +436,64 @@
     </r>
   </si>
   <si>
-    <t>cituje (co)</t>
-  </si>
-  <si>
-    <t>isSupplementTo</t>
-  </si>
-  <si>
-    <t>je doplňkem k (čemu)</t>
-  </si>
-  <si>
-    <t>is supplement to</t>
-  </si>
-  <si>
-    <t>isSupplementedBy</t>
-  </si>
-  <si>
-    <t>Use to indicate the relation to the work to which the resource is a supplement.</t>
-  </si>
-  <si>
-    <t>má doplněk</t>
-  </si>
-  <si>
-    <t>is supplemented by</t>
-  </si>
-  <si>
-    <t>Use to indicate the relation to the work(s) which are supplements of the resource.</t>
-  </si>
-  <si>
-    <t>describes</t>
-  </si>
-  <si>
-    <t>popisuje (co)</t>
-  </si>
-  <si>
-    <t>isDescribedBy</t>
-  </si>
-  <si>
-    <t>je popsán (čím)</t>
-  </si>
-  <si>
-    <t>is described by</t>
-  </si>
-  <si>
-    <t>isPublishedIn</t>
-  </si>
-  <si>
-    <t>je publikován v</t>
-  </si>
-  <si>
-    <t>is published in</t>
-  </si>
-  <si>
-    <t>isRequiredBy</t>
-  </si>
-  <si>
-    <t>je požadován (čím)</t>
-  </si>
-  <si>
-    <t>is required by</t>
-  </si>
-  <si>
-    <t>requires</t>
-  </si>
-  <si>
-    <t>požaduje (co)</t>
-  </si>
-  <si>
-    <t>isContinuedBy</t>
-  </si>
-  <si>
-    <t>je pokračováním (čeho)</t>
-  </si>
-  <si>
-    <t>is continued by</t>
-  </si>
-  <si>
-    <t>continues</t>
-  </si>
-  <si>
-    <t>Use to indicate the resource is continued by the work referenced by the related identifier.</t>
-  </si>
-  <si>
-    <t>pokračuje (čím)</t>
-  </si>
-  <si>
-    <t>Use to indicate the resource is a continuation of the work referenced by the related identifier.</t>
-  </si>
-  <si>
-    <t>hasMetadata</t>
-  </si>
-  <si>
-    <t>má metadata</t>
-  </si>
-  <si>
-    <t>has metadata</t>
-  </si>
-  <si>
-    <t>isMetadataFor</t>
-  </si>
-  <si>
-    <t>je metadaty pro</t>
-  </si>
-  <si>
-    <t>is metadata for</t>
-  </si>
-  <si>
-    <t>isNewVersionOf</t>
-  </si>
-  <si>
-    <t>je novou verzí (čeho)</t>
-  </si>
-  <si>
-    <t>is new version of</t>
-  </si>
-  <si>
-    <t>isPreviousVersionOf</t>
-  </si>
-  <si>
-    <t>Use to indicate the resource is a new edition of an old resource, where the new edition has been modified or updated.</t>
-  </si>
-  <si>
-    <t>je předchozí verzí (čeho)</t>
-  </si>
-  <si>
-    <t>is previous version of</t>
-  </si>
-  <si>
-    <t>Use to indicate the resource is a previous edition of a newer resource.</t>
-  </si>
-  <si>
-    <t>isDocumentedBy</t>
-  </si>
-  <si>
-    <t>je zdokumentován (čím)</t>
-  </si>
-  <si>
-    <t>is documented by</t>
-  </si>
-  <si>
-    <t>documents</t>
-  </si>
-  <si>
-    <t>Use to indicate the work is documentation about/explaining the resource referenced by the related identifier.</t>
-  </si>
-  <si>
-    <t>dokumentuje (co)</t>
-  </si>
-  <si>
-    <t>Use to indicate the relation to the work which is documentation.</t>
-  </si>
-  <si>
-    <t>isVariantFormOf</t>
-  </si>
-  <si>
-    <t>je variantou (čeho)</t>
-  </si>
-  <si>
-    <t>is variant form of</t>
-  </si>
-  <si>
-    <t>isOriginalFormOf</t>
-  </si>
-  <si>
-    <t>Use for a different form of one thing. May be used for different software operating systems or compiler formats, for example.</t>
-  </si>
-  <si>
-    <t>je původní variantou (čeho)</t>
-  </si>
-  <si>
-    <t>is original form of</t>
-  </si>
-  <si>
-    <t>Use to indicate the relation to the works which are variant or different forms of the resource.</t>
-  </si>
-  <si>
-    <t>isIdenticalTo</t>
-  </si>
-  <si>
-    <t>je identický s</t>
-  </si>
-  <si>
-    <t>is identical to</t>
-  </si>
-  <si>
-    <t>IsIdenticalTo should be used for a resource that is the same as the registered resource but is saved on another location, maybe another institution.</t>
-  </si>
-  <si>
-    <t>isDerivedFrom</t>
-  </si>
-  <si>
-    <t>je odvozen od (čeho)</t>
-  </si>
-  <si>
-    <t>is derived from</t>
-  </si>
-  <si>
-    <t>isSourceOf</t>
-  </si>
-  <si>
-    <t>IsDerivedFrom should be used for a resource that is a derivative of an original resource.</t>
-  </si>
-  <si>
-    <t>je zdrojem odvozené verze</t>
-  </si>
-  <si>
-    <t>is source of</t>
-  </si>
-  <si>
-    <t>IsSourceOf is the original resource from which a derivative resource was created.</t>
-  </si>
-  <si>
-    <t>obsoletes</t>
-  </si>
-  <si>
-    <t>nahrazuje (co)</t>
-  </si>
-  <si>
-    <t>isObsoletedBy</t>
-  </si>
-  <si>
-    <t>je nahrazen (čím)</t>
-  </si>
-  <si>
-    <t>is obsoleted by</t>
+    <t>Indicates that A is a supplement to B. Use to indicate the relation to the work to which the resource is a supplement.</t>
+  </si>
+  <si>
+    <t>Indicates that B is a supplement to A. Use to indicate the relation to the work(s) which are supplements of the resource.</t>
+  </si>
+  <si>
+    <t>Indicates A describes B.</t>
+  </si>
+  <si>
+    <t>Indicates A is described by B.</t>
+  </si>
+  <si>
+    <t>Indicates A is published inside B, but is independent of other things published inside of B.</t>
+  </si>
+  <si>
+    <t>Indicates A is required by B. May be used to indicate software dependencies.</t>
+  </si>
+  <si>
+    <t>Indicates A requires B. May be used to indicate software dependencies.</t>
+  </si>
+  <si>
+    <t>Indicates A is continued by the work B. Use to indicate the resource is continued by the work referenced by the related identifier.</t>
+  </si>
+  <si>
+    <t>Indicates A is a continuation of the work B. Use to indicate the resource is a continuation of the work referenced by the related identifier.</t>
+  </si>
+  <si>
+    <t>Indicates resource A has additional metadata B.</t>
+  </si>
+  <si>
+    <t>Indicates additional metadata A for a resource B.</t>
+  </si>
+  <si>
+    <t>Indicates A is a new edition of B, where the new edition has been modified or updated. Use to indicate the resource is a new edition of an old resource, where the new edition has been modified or updated.</t>
+  </si>
+  <si>
+    <t>Indicates A is a previous edition of B. Use to indicate the resource is a previous edition of a newer resource.</t>
+  </si>
+  <si>
+    <t>Indicates B is documentation about/explaining A. Use to indicate the work is documentation about/explaining the resource referenced by the related identifier. May be used for software documentation.</t>
+  </si>
+  <si>
+    <t>Indicates A is documentation about/explaining B. Use to indicate the relation to the work which is documentation. May be used for software documentation.</t>
+  </si>
+  <si>
+    <t>Indicates A is a variant or different form of B. Use for a different form of one thing. May be used for different software operating systems or compiler formats, for example.</t>
+  </si>
+  <si>
+    <t>Indicates A is the original form of B. Use to indicate the relation to the works which are variant or different forms of the resource.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -541,79 +619,111 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Motiv Office">
       <a:dk1>
@@ -815,7 +925,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -834,7 +944,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,7 +974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,7 +1026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,7 +1052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,7 +1078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,7 +1104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,7 +1130,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,7 +1156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,7 +1182,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,9 +1195,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1104,7 +1220,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1123,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +1343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +1369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1395,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +1421,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +1447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1357,7 +1473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,9 +1486,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1386,7 +1508,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1405,7 +1527,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1557,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1583,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1487,7 +1609,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1513,7 +1635,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1539,7 +1661,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1565,7 +1687,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1591,7 +1713,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1617,7 +1739,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1643,7 +1765,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1656,44 +1778,53 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="52.1719" style="1" customWidth="1"/>
-    <col min="9" max="22" width="8.5" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.1796875" style="1" customWidth="1"/>
+    <col min="9" max="23" width="8.453125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:22" ht="15.65" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
@@ -1716,14 +1847,14 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:22" ht="15.65" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="7"/>
@@ -1746,7 +1877,7 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1770,7 +1901,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:22" ht="13.5" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1794,20 +1925,20 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" spans="1:22" ht="15.65" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s" s="9">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="10"/>
@@ -1828,23 +1959,23 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" ht="20.4" customHeight="1">
-      <c r="A6" t="s" s="11">
+    <row r="6" spans="1:22" ht="20.399999999999999" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s" s="11">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="11">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="8"/>
@@ -1862,23 +1993,23 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="8">
+    <row r="7" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="8">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="F7" s="12"/>
+      <c r="E7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="8"/>
@@ -1896,23 +2027,23 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="8">
+    <row r="8" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="F8" s="12"/>
+      <c r="E8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="11"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="8"/>
@@ -1930,23 +2061,23 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="8">
+    <row r="9" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12"/>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="11"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="8"/>
@@ -1964,21 +2095,23 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="8">
+    <row r="10" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="8"/>
@@ -1996,21 +2129,23 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s" s="8">
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="8"/>
@@ -2028,21 +2163,23 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="8">
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="8"/>
@@ -2060,21 +2197,23 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="8">
+    <row r="13" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="8"/>
@@ -2092,23 +2231,23 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="8">
+    <row r="14" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="F14" s="12"/>
+      <c r="E14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="11"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2126,23 +2265,23 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s" s="8">
+    <row r="15" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="F15" s="12"/>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="11"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2160,23 +2299,23 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" ht="17" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="F16" s="12"/>
+    <row r="16" spans="1:22" ht="17" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="11"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2194,23 +2333,23 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="17" ht="17" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s" s="8">
+    <row r="17" spans="1:22" ht="17" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="F17" s="12"/>
+      <c r="C17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2228,23 +2367,23 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="F18" s="12"/>
+    <row r="18" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -2262,23 +2401,23 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s" s="8">
+    <row r="19" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E19" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="D19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -2296,21 +2435,23 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s" s="8">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="12"/>
+    <row r="20" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2328,21 +2469,23 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s" s="8">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s" s="8">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="12"/>
+    <row r="21" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="11"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -2360,19 +2503,21 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="12"/>
+    <row r="22" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2390,21 +2535,23 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s" s="8">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="12"/>
+    <row r="23" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="11"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -2422,21 +2569,23 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s" s="8">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="12"/>
+    <row r="24" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2454,23 +2603,23 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="D25" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s" s="8">
-        <v>71</v>
-      </c>
-      <c r="F25" s="12"/>
+    <row r="25" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="11"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -2488,23 +2637,23 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="E26" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="F26" s="12"/>
+    <row r="26" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="11"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2522,21 +2671,23 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="B27" t="s" s="8">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s" s="8">
-        <v>76</v>
-      </c>
-      <c r="D27" t="s" s="8">
-        <v>77</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="12"/>
+    <row r="27" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="11"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -2554,21 +2705,23 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s" s="8">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s" s="8">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="12"/>
+    <row r="28" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="11"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2586,23 +2739,23 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
     </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>80</v>
-      </c>
-      <c r="B29" t="s" s="8">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s" s="8">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s" s="8">
-        <v>84</v>
-      </c>
-      <c r="F29" s="12"/>
+    <row r="29" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="11"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2620,23 +2773,23 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
     </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" t="s" s="8">
-        <v>83</v>
-      </c>
-      <c r="B30" t="s" s="8">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s" s="8">
-        <v>86</v>
-      </c>
-      <c r="D30" t="s" s="8">
-        <v>80</v>
-      </c>
-      <c r="E30" t="s" s="8">
-        <v>87</v>
-      </c>
-      <c r="F30" s="12"/>
+    <row r="30" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="11"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2654,23 +2807,23 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s" s="8">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="D31" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="F31" s="12"/>
+    <row r="31" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="11"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -2688,23 +2841,23 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="B32" t="s" s="8">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="D32" t="s" s="8">
-        <v>88</v>
-      </c>
-      <c r="E32" t="s" s="8">
-        <v>94</v>
-      </c>
-      <c r="F32" s="12"/>
+    <row r="32" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="11"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2722,23 +2875,23 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>95</v>
-      </c>
-      <c r="B33" t="s" s="8">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s" s="8">
-        <v>97</v>
-      </c>
-      <c r="D33" t="s" s="8">
-        <v>98</v>
-      </c>
-      <c r="E33" t="s" s="8">
-        <v>99</v>
-      </c>
-      <c r="F33" s="12"/>
+    <row r="33" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="11"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2756,23 +2909,23 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>98</v>
-      </c>
-      <c r="B34" t="s" s="8">
-        <v>100</v>
-      </c>
-      <c r="C34" t="s" s="8">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s" s="8">
-        <v>95</v>
-      </c>
-      <c r="E34" t="s" s="8">
-        <v>102</v>
-      </c>
-      <c r="F34" s="12"/>
+    <row r="34" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="11"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2790,21 +2943,21 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="B35" t="s" s="8">
-        <v>104</v>
-      </c>
-      <c r="C35" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" t="s" s="8">
-        <v>106</v>
-      </c>
-      <c r="F35" s="12"/>
+    <row r="35" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="11"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -2822,23 +2975,23 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="B36" t="s" s="8">
-        <v>108</v>
-      </c>
-      <c r="C36" t="s" s="8">
-        <v>109</v>
-      </c>
-      <c r="D36" t="s" s="8">
-        <v>110</v>
-      </c>
-      <c r="E36" t="s" s="8">
-        <v>111</v>
-      </c>
-      <c r="F36" s="12"/>
+    <row r="36" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="11"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2856,23 +3009,23 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>110</v>
-      </c>
-      <c r="B37" t="s" s="8">
-        <v>112</v>
-      </c>
-      <c r="C37" t="s" s="8">
+    <row r="37" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D37" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="E37" t="s" s="8">
-        <v>114</v>
-      </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2890,21 +3043,23 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s" s="8">
-        <v>116</v>
-      </c>
-      <c r="C38" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="D38" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="12"/>
+    <row r="38" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="11"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2922,21 +3077,23 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="B39" t="s" s="8">
-        <v>118</v>
-      </c>
-      <c r="C39" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="D39" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="13"/>
+    <row r="39" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A39" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2954,9 +3111,43 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
     </row>
+    <row r="40" spans="1:22" ht="14.4" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="14.4" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
